--- a/biology/Médecine/Inhibiteur_de_la_GABA_transaminase/Inhibiteur_de_la_GABA_transaminase.xlsx
+++ b/biology/Médecine/Inhibiteur_de_la_GABA_transaminase/Inhibiteur_de_la_GABA_transaminase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En pharmacologie, un inhibiteur de la GABA transaminase est un inhibiteur enzymatique qui agit sur la GABA transaminase[1]. L'inhibition des enzymes GABA transaminase réduit la dégradation du GABA, entraînant une augmentation des concentrations neuronales de GABA.
-Parmi les exemples, on peut citer l'acide valproïque[2], la vigabatrine[3],[4], la phényléthylidènehydrazine (et les médicaments dont elle est un métabolite, comme la phénelzine[5] ), l'éthanolamine- &lt;i id="mwFw"&gt;O&lt;/i&gt; -sulfate (EOS) et la L- cyclosérine[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En pharmacologie, un inhibiteur de la GABA transaminase est un inhibiteur enzymatique qui agit sur la GABA transaminase. L'inhibition des enzymes GABA transaminase réduit la dégradation du GABA, entraînant une augmentation des concentrations neuronales de GABA.
+Parmi les exemples, on peut citer l'acide valproïque, la vigabatrine la phényléthylidènehydrazine (et les médicaments dont elle est un métabolite, comme la phénelzine ), l'éthanolamine- &lt;i id="mwFw"&gt;O&lt;/i&gt; -sulfate (EOS) et la L- cyclosérine.
 Certains membres de cette classe sont utilisés comme antiépileptiques.
 </t>
         </is>
